--- a/pred_ohlcv/54_21/2019-10-19 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 WAVES ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>5746.4488</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>4966.4488</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>4966.4488</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>4246.4488</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>4246.4488</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>4246.4488</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3652.3802</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3417.3256</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>3417.3256</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3417.3256</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3417.3256</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3417.3256</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>4100.733200000001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3657.880200000001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2173.247800000001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2173.247800000001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-17864.9134</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-17864.9134</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-18447.1683</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-18447.1683</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-18447.1683</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-18447.1683</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-18447.1683</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-18447.1683</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-15113.88850000001</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-15113.88850000001</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-7132.863600000005</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-8787.623900000004</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-8611.365900000004</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-8611.365900000004</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-8611.365900000004</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-8505.008900000004</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-8505.008900000004</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-8505.008900000004</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-8505.008900000004</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-8673.019800000004</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-19 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 WAVES ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>5746.4488</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>4966.4488</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>4966.4488</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>4246.4488</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>4246.4488</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>4246.4488</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3652.3802</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3417.3256</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>3417.3256</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3417.3256</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3417.3256</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3417.3256</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3657.880200000001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-17864.9134</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-17864.9134</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-18447.1683</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-18447.1683</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-18447.1683</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-18447.1683</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-18447.1683</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-18447.1683</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-18447.1683</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-15113.88850000001</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-15113.88850000001</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-7132.863600000005</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-8787.623900000004</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-8611.365900000004</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-8611.365900000004</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-8611.365900000004</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-8505.008900000004</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-8505.008900000004</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-8505.008900000004</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-8505.008900000004</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-8672.019800000004</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-8673.019800000004</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
